--- a/WIP/Plans/Tasklist/Overview-Tasklist-20120110.xlsx
+++ b/WIP/Plans/Tasklist/Overview-Tasklist-20120110.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tasklist20120110" sheetId="1" r:id="rId1"/>
+    <sheet name="MM20120110" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Task list</t>
   </si>
@@ -101,12 +102,6 @@
     <t>+ Bus category management</t>
   </si>
   <si>
-    <t>- Pricing and Promotions</t>
-  </si>
-  <si>
-    <t>+ Pricing based on route, bus type and departure time (price on holidays is higher)</t>
-  </si>
-  <si>
     <t>+ Promotion for customer loyalty or special events</t>
   </si>
   <si>
@@ -144,13 +139,121 @@
   </si>
   <si>
     <t>+ Update user info and status</t>
+  </si>
+  <si>
+    <t>- Fare and Promotions</t>
+  </si>
+  <si>
+    <t>+ Fare based on route, bus type and departure time (price on holidays is higher)</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Discussed Items</t>
+  </si>
+  <si>
+    <t>Decisions</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>- Focus vào việc hạn chế của system hiện tại là customer phải đến tận nơi, chen lấn xô đẩy… để mua được vé xe</t>
+  </si>
+  <si>
+    <t>- Cần điều tra rõ số liệu, trong tài liệu cần ghi reference</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>- PayPal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         + Test dùng thử PayPal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         + Điều tra chi phí license</t>
+  </si>
+  <si>
+    <t>- Chữ mờ =&gt; design lại chữ, màu chữ phải khác biệt màu nền (nền phải đậm hơn)</t>
+  </si>
+  <si>
+    <t>- Panel hình ko nên chèn chữ</t>
+  </si>
+  <si>
+    <t>- Hạn chế scroll form (fix cứng trang)</t>
+  </si>
+  <si>
+    <t>- Phân biệt giữa menu và title</t>
+  </si>
+  <si>
+    <t>- Cần có sample bên cạnh form</t>
+  </si>
+  <si>
+    <t>- Giao diện người dùng tiếng việt, admin tiếng anh</t>
+  </si>
+  <si>
+    <t>Tasklist</t>
+  </si>
+  <si>
+    <t>- Trường: Search</t>
+  </si>
+  <si>
+    <t>- Sơn: Booking</t>
+  </si>
+  <si>
+    <t>- Hải: Payment</t>
+  </si>
+  <si>
+    <t>- Trâm: Scheduling</t>
+  </si>
+  <si>
+    <t>- Những task nhỏ khác tự chia</t>
+  </si>
+  <si>
+    <t>Project Scope</t>
+  </si>
+  <si>
+    <t>- Thêm phần search round-trip</t>
+  </si>
+  <si>
+    <t>- Không cho quá cảnh, khi search không cần đề xuất lộ trình quá cảnh</t>
+  </si>
+  <si>
+    <t>Cách thức nộp report</t>
+  </si>
+  <si>
+    <t>- Fill thẳng vào file hoàn chỉnh, không cần chia theo từng report để tránh việc bể font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Format report được quy định tại đường dẫn </t>
+  </si>
+  <si>
+    <t>http://cms-hcm.fpt.edu.vn/files/daotao/TOT%20NGHIEP/QD%2009%20Sua%20doi%20quy%20dinh%20ve%20tot%20nghiep.pdf</t>
+  </si>
+  <si>
+    <t>Report 2</t>
+  </si>
+  <si>
+    <t>- Chuẩn bị report 2:  Software Project Management Plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +268,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +309,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -468,11 +610,261 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,21 +902,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,6 +925,230 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,39 +1442,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32" t="s">
-        <v>33</v>
+      <c r="A2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="27" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -892,7 +1493,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="14"/>
       <c r="M3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -983,39 +1584,39 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36" t="s">
-        <v>35</v>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47" t="s">
-        <v>35</v>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1055,25 +1656,25 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="3"/>
       <c r="C14" s="38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
@@ -1085,44 +1686,44 @@
       <c r="K14" s="40"/>
       <c r="L14" s="41"/>
       <c r="M14" s="42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47" t="s">
-        <v>36</v>
-      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
+      <c r="C16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -1140,7 +1741,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="18"/>
       <c r="M17" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1159,7 +1760,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="14"/>
       <c r="M18" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1246,7 +1847,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="14"/>
       <c r="M23" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1303,7 +1904,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1323,7 +1924,7 @@
       <c r="A28" s="15"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1340,7 +1941,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="5"/>
       <c r="C29" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1356,7 +1957,7 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -1369,13 +1970,13 @@
       <c r="K30" s="23"/>
       <c r="L30" s="26"/>
       <c r="M30" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1388,14 +1989,14 @@
       <c r="K31" s="9"/>
       <c r="L31" s="14"/>
       <c r="M31" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1412,7 +2013,7 @@
       <c r="A33" s="15"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1429,7 +2030,7 @@
       <c r="A34" s="17"/>
       <c r="B34" s="5"/>
       <c r="C34" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1445,7 +2046,7 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -1458,7 +2059,7 @@
       <c r="K35" s="23"/>
       <c r="L35" s="26"/>
       <c r="M35" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1616,4 +2217,554 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="89">
+        <v>1</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="115">
+        <v>41289</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="114"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="89">
+        <v>2</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="97"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="98">
+        <v>41289</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="96"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="89">
+        <v>3</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="115">
+        <v>41289</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="114"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="114"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="114"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="114"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="114"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="116"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="89">
+        <v>4</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="115">
+        <v>41289</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="114"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="114"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="114"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="116"/>
+    </row>
+    <row r="22" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="89">
+        <v>5</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="93"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="93"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="75"/>
+    </row>
+    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="76">
+        <v>6</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="78"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="81"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="81"/>
+    </row>
+    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="81"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="81"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="75"/>
+    </row>
+    <row r="31" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="113">
+        <v>7</v>
+      </c>
+      <c r="C31" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="112"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="K10:K16"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D25:I26"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D28:I30"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D5:I6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D10:I11"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>